--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_3_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_3_sawtooth_0_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.268067655157463, 8.775714632387285]</t>
+          <t>[4.264382927105267, 8.77939936043948]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.541556165525094e-08</v>
+        <v>2.672089505217912e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>5.083112331050188e-08</v>
+        <v>5.344179010435823e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-1.446579199851156</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8365266363327715, -1.0566317633695403]</t>
+          <t>[-1.8491055858966945, -1.0440528138056173]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.758371226401323e-12</v>
+        <v>7.635003740347202e-12</v>
       </c>
       <c r="R2" t="n">
-        <v>1.758371226401323e-12</v>
+        <v>7.635003740347202e-12</v>
       </c>
       <c r="S2" t="n">
         <v>9.347811144520954</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[7.9694301067988755, 10.726192182243032]</t>
+          <t>[7.968339124338804, 10.727283164703103]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>5.873173173173299</v>
       </c>
       <c r="X2" t="n">
-        <v>4.289969969970064</v>
+        <v>4.238898898898992</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.456376376376535</v>
+        <v>7.507447447447607</v>
       </c>
     </row>
     <row r="3">
@@ -672,21 +672,21 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[4.30999599354781, 9.093570617284966]</t>
+          <t>[4.204186229752095, 9.199380381080681]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7.81518552095406e-08</v>
+        <v>2.545926187647041e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>7.81518552095406e-08</v>
+        <v>2.545926187647041e-07</v>
       </c>
       <c r="O3" t="n">
         <v>-2.981211046649773</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.408895331823158, -2.553526761476389]</t>
+          <t>[-3.434053230951005, -2.528368862348542]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.103109433320615, 10.097267320502436]</t>
+          <t>[7.101728817330797, 10.098647936492252]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -713,10 +713,10 @@
         <v>11.67207207207226</v>
       </c>
       <c r="X3" t="n">
-        <v>9.997597597597764</v>
+        <v>9.899099099099262</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.34654654654677</v>
+        <v>13.44504504504527</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_3_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_3_sawtooth_0_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.264382927105267, 8.77939936043948]</t>
+          <t>[4.292434563579269, 8.751347723965479]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.672089505217912e-08</v>
+        <v>1.81437871393797e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>5.344179010435823e-08</v>
+        <v>3.628757427875939e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-1.446579199851156</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8491055858966945, -1.0440528138056173]</t>
+          <t>[-1.8616845354606184, -1.0314738642416934]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>7.635003740347202e-12</v>
+        <v>2.939781751365445e-11</v>
       </c>
       <c r="R2" t="n">
-        <v>7.635003740347202e-12</v>
+        <v>2.939781751365445e-11</v>
       </c>
       <c r="S2" t="n">
         <v>9.347811144520954</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[7.968339124338804, 10.727283164703103]</t>
+          <t>[7.968023209598867, 10.72759907944304]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>5.873173173173299</v>
       </c>
       <c r="X2" t="n">
-        <v>4.238898898898992</v>
+        <v>4.187827827827916</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.507447447447607</v>
+        <v>7.558518518518683</v>
       </c>
     </row>
     <row r="3">
@@ -672,21 +672,21 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[4.204186229752095, 9.199380381080681]</t>
+          <t>[4.221012460500031, 9.182554150332745]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2.545926187647041e-07</v>
+        <v>2.129605254364009e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>2.545926187647041e-07</v>
+        <v>2.129605254364009e-07</v>
       </c>
       <c r="O3" t="n">
         <v>-2.981211046649773</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.434053230951005, -2.528368862348542]</t>
+          <t>[-3.421474281387082, -2.540947811912465]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.101728817330797, 10.098647936492252]</t>
+          <t>[7.101216814632073, 10.099159939190978]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -713,10 +713,10 @@
         <v>11.67207207207226</v>
       </c>
       <c r="X3" t="n">
-        <v>9.899099099099262</v>
+        <v>9.948348348348512</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.44504504504527</v>
+        <v>13.39579579579602</v>
       </c>
     </row>
   </sheetData>
